--- a/Master-functional-testcases/Credential Issuance/TC_CREDENTIALISSUANCE_MASTER.xlsx
+++ b/Master-functional-testcases/Credential Issuance/TC_CREDENTIALISSUANCE_MASTER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Desktop\1.1.5\ci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>it should not process same records</t>
+  </si>
+  <si>
+    <t>Story id</t>
+  </si>
+  <si>
+    <t>MOSIP-9800</t>
+  </si>
+  <si>
+    <t>MOSIP-11479</t>
+  </si>
+  <si>
+    <t>MOSIP-11986</t>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +552,10 @@
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,8 +577,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -587,8 +603,11 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -610,8 +629,11 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -633,8 +655,11 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -656,8 +681,11 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -679,8 +707,11 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -702,8 +733,11 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -725,8 +759,11 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -748,8 +785,11 @@
       <c r="G9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -770,6 +810,9 @@
       </c>
       <c r="G10" t="s">
         <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Master-functional-testcases/Credential Issuance/TC_CREDENTIALISSUANCE_MASTER.xlsx
+++ b/Master-functional-testcases/Credential Issuance/TC_CREDENTIALISSUANCE_MASTER.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -86,57 +86,21 @@
     <t>Failed request handling</t>
   </si>
   <si>
-    <t>Verify if credential issue failed</t>
-  </si>
-  <si>
-    <t>It should retry for configured time ,if time exceeds it should mark as failed</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Failed request handling_02</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify  UIN and VID issuance </t>
-  </si>
-  <si>
-    <t>UIN and Vid should be issued</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Failed request handling_03</t>
   </si>
   <si>
-    <t>Verify credential issuance to the third party</t>
-  </si>
-  <si>
-    <t>Credential issuance  should issued to third party after retry process</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Failed request handling_04</t>
   </si>
   <si>
-    <t>Verify Qrcode generation</t>
-  </si>
-  <si>
-    <t>Qrcode should be generated</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Failed request handling_05</t>
   </si>
   <si>
-    <t>Verify Reprint UIN card</t>
-  </si>
-  <si>
-    <t>card should be downloaded</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Failed request handling_06</t>
   </si>
   <si>
-    <t>Verify failed requests should get proceed</t>
-  </si>
-  <si>
-    <t>it should be reprocessed by configured time</t>
-  </si>
-  <si>
     <t>CredentialIssuance_Lock handling_01</t>
   </si>
   <si>
@@ -159,13 +123,67 @@
   </si>
   <si>
     <t>MOSIP-11986</t>
+  </si>
+  <si>
+    <t>Verify New api in Credential Request Generator to show Failed records</t>
+  </si>
+  <si>
+    <t>Failed records should be displayed</t>
+  </si>
+  <si>
+    <t>Verify New api in Credential Request Generator to retrigger the specific failed record</t>
+  </si>
+  <si>
+    <t>Failed record status should change to retry</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for UIN generation gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Credential issuance for UIN should get reproceed</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for VID generation gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Credential issuance for VID should get reproceed</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for qrcode generation gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Credential issuance for qrcode should get reproceed</t>
+  </si>
+  <si>
+    <t>Verify failed credential issuance for re print gets reproceed after the configured time</t>
+  </si>
+  <si>
+    <t>Credential issuance for reprint should get reproceed</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Failed request handling_07</t>
+  </si>
+  <si>
+    <t>Verify credential issuance for qrcode get reprocessed by giving credential request type as auth in properties</t>
+  </si>
+  <si>
+    <t>Credential issuance for qrcode should not get reprocessed</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Failed request handling_08</t>
+  </si>
+  <si>
+    <t>Verify credential issuance for reprint get reprocessed by giving credential request type as auth in properties</t>
+  </si>
+  <si>
+    <t>Credential issuance for reprint should not get reprocessed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,17 +201,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3B4151"/>
+      <color rgb="FF172B4D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF172B4D"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,7 +277,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -604,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -630,189 +660,241 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Master-functional-testcases/Credential Issuance/TC_CREDENTIALISSUANCE_MASTER.xlsx
+++ b/Master-functional-testcases/Credential Issuance/TC_CREDENTIALISSUANCE_MASTER.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -177,6 +180,33 @@
   </si>
   <si>
     <t>Credential issuance for reprint should not get reprocessed</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Sanity_01</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Create UIN and verify credential is issued</t>
+  </si>
+  <si>
+    <t>Credential must be issued</t>
+  </si>
+  <si>
+    <t>Update UIN and verify credential is issued</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Sanity_02</t>
+  </si>
+  <si>
+    <t>CredentialIssuance_Sanity_03</t>
+  </si>
+  <si>
+    <t>Create VID and verify credential is issued</t>
   </si>
 </sst>
 </file>
@@ -260,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -285,6 +315,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +612,7 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -897,7 +930,77 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>